--- a/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_26.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_26.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02855300903320312</v>
+        <v>0.0008916854858398438</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009417057037353516</v>
+        <v>0.0009059906005859375</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0002119541168212891</v>
+        <v>0.01459097862243652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 5), (2, 2)]</t>
+          <t>[[0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 5], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 5), (2, 2)]</t>
+          <t>[[0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 5], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 3), (0, 4), (0, 5), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (1, 1), (1, 2), (1, 3), (2, 2), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 0), (0, 1)]</t>
+          <t>[[0, 2], [0, 3], [0, 4], [0, 5], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [1, 1], [1, 2], [1, 3], [2, 2], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -919,110 +919,120 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>15</v>
+        <v>0.9991011055722674</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.04924297332763672</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0292057991027832</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
